--- a/BAF504투자분석/hw2/Lec7_MVF_CAL.xlsx
+++ b/BAF504투자분석/hw2/Lec7_MVF_CAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\KAIST_MFE\sem1.1\BAF504투자분석\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VSCodeProjects\KAIST_MFE\BAF504투자분석\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16586902-07B8-4C45-8BB0-446EAE93B505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A785EF3-B1DE-42DA-9328-77CEB64E729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annualization" sheetId="8" r:id="rId1"/>
@@ -176,26 +176,49 @@
     </comment>
     <comment ref="K3" authorId="1" shapeId="0" xr:uid="{3BB7CAED-4110-46CF-A68B-F6AD5FBAD4C5}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Monthly로 맞춰준 것임. </t>
+        </r>
       </text>
     </comment>
     <comment ref="I66" authorId="2" shapeId="0" xr:uid="{98111E14-A321-4810-B986-54B169F05E29}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
     * 12 해서 산술합 시킴. geo cum 하지않고. </t>
+        </r>
       </text>
     </comment>
     <comment ref="I67" authorId="3" shapeId="0" xr:uid="{9E8B0CE1-A86C-4E98-B60C-5FB2ABF5E27B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Comment:
     annual avg는 *12지만, 분모의 std는 *sqrt(12)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -532,7 +555,7 @@
     <numFmt numFmtId="166" formatCode="0.000000000_ "/>
     <numFmt numFmtId="167" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,12 +595,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3851,20 +3868,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD44FFBD-5635-4FB6-8A24-9E7DA9B4B730}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6627,16 +6644,20 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7223,17 +7244,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7806,16 +7829,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8004,7 +8030,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="19.2" customHeight="1">
+    <row r="22" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A22" t="s">
         <v>14</v>
       </c>
